--- a/results/20250402/evaluation_chd_49_noisy_0.3.xlsx
+++ b/results/20250402/evaluation_chd_49_noisy_0.3.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.63174</v>
+        <v>0.40971</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04785</v>
+        <v>0.01701</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.30703</v>
+        <v>0.01586</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07874</v>
+        <v>0.00996</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.4566</v>
+        <v>0.38551</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0522</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.09081</v>
+        <v>0.00072</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03838</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.62926</v>
+        <v>0.41069</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04555</v>
+        <v>0.01804</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.30126</v>
+        <v>0.01586</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07733</v>
+        <v>0.01089</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.43373</v>
+        <v>0.38124</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05349</v>
+        <v>0.01977</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.08252</v>
+        <v>0.00108</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03574</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.6892</v>
+        <v>0.48324</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0339</v>
+        <v>0.01144</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.43171</v>
+        <v>0.00072</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06003</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.67666</v>
+        <v>0.48404</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03473</v>
+        <v>0.01228</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.41477</v>
+        <v>0.00072</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06166</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6898</v>
+        <v>0.48341</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03513</v>
+        <v>0.01132</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.43207</v>
+        <v>0.00072</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06107</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.67683</v>
+        <v>0.4836</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03518</v>
+        <v>0.01222</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.41514</v>
+        <v>0.00072</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06163</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.63726</v>
+        <v>0.38145</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04484</v>
+        <v>0.01908</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.3445</v>
+        <v>0.01153</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05341</v>
+        <v>0.00865</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.4806</v>
+        <v>0.36819</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03947</v>
+        <v>0.01595</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.12541</v>
+        <v>0.00036</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04132</v>
+        <v>0.00177</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.63678</v>
+        <v>0.38441</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04353</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.34342</v>
+        <v>0.01117</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05187</v>
+        <v>0.00856</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.44267</v>
+        <v>0.36718</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04594</v>
+        <v>0.01696</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.10378</v>
+        <v>0.00108</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04165</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.46369</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03571</v>
+        <v>0.01088</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.32829</v>
+        <v>0.00072</v>
       </c>
       <c r="I75" t="n">
-        <v>0.06442000000000001</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.5742</v>
+        <v>0.46825</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03759</v>
+        <v>0.01062</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.26198</v>
+        <v>0.00144</v>
       </c>
       <c r="I77" t="n">
-        <v>0.05926</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.6246</v>
+        <v>0.46395</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0369</v>
+        <v>0.01055</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.32973</v>
+        <v>0.00072</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06635000000000001</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.57189</v>
+        <v>0.46885</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04032</v>
+        <v>0.01072</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.25982</v>
+        <v>0.00144</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05985</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.6062</v>
+        <v>0.39635</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03346</v>
+        <v>0.02014</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.29694</v>
+        <v>0.01297</v>
       </c>
       <c r="I107" t="n">
-        <v>0.04576</v>
+        <v>0.01053</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.43229</v>
+        <v>0.38018</v>
       </c>
       <c r="I108" t="n">
-        <v>0.05337</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.08396000000000001</v>
+        <v>0.00108</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02936</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.60598</v>
+        <v>0.39815</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03406</v>
+        <v>0.02024</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.2973</v>
+        <v>0.01369</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04109</v>
+        <v>0.01054</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.4104</v>
+        <v>0.37939</v>
       </c>
       <c r="I112" t="n">
-        <v>0.05366</v>
+        <v>0.01704</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.07171</v>
+        <v>0.0018</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0302</v>
+        <v>0.00441</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.62948</v>
+        <v>0.48161</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03721</v>
+        <v>0.01219</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.34414</v>
+        <v>0.00072</v>
       </c>
       <c r="I115" t="n">
-        <v>0.05938</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.61112</v>
+        <v>0.48166</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0425</v>
+        <v>0.01096</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.3218</v>
+        <v>0.00072</v>
       </c>
       <c r="I117" t="n">
-        <v>0.06494</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.6302</v>
+        <v>0.48178</v>
       </c>
       <c r="I118" t="n">
-        <v>0.03676</v>
+        <v>0.01205</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.34523</v>
+        <v>0.00072</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05958</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.61043</v>
+        <v>0.48178</v>
       </c>
       <c r="I120" t="n">
-        <v>0.04242</v>
+        <v>0.01094</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.32108</v>
+        <v>0.00072</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06536</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.63873</v>
+        <v>0.37023</v>
       </c>
       <c r="I146" t="n">
-        <v>0.03895</v>
+        <v>0.02184</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.35964</v>
+        <v>0.01117</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05594</v>
+        <v>0.00817</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.4842</v>
+        <v>0.3619</v>
       </c>
       <c r="I148" t="n">
-        <v>0.03709</v>
+        <v>0.02144</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.14847</v>
+        <v>0.00036</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0285</v>
+        <v>0.00177</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.63601</v>
+        <v>0.37331</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03748</v>
+        <v>0.02287</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.35459</v>
+        <v>0.01117</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04993</v>
+        <v>0.00817</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.43498</v>
+        <v>0.36389</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0378</v>
+        <v>0.02347</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.11495</v>
+        <v>0.00108</v>
       </c>
       <c r="I153" t="n">
-        <v>0.02564</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.6136</v>
+        <v>0.45944</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02173</v>
+        <v>0.01947</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.31604</v>
+        <v>0.00072</v>
       </c>
       <c r="I155" t="n">
-        <v>0.03567</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.55291</v>
+        <v>0.46455</v>
       </c>
       <c r="I156" t="n">
-        <v>0.02742</v>
+        <v>0.01759</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.24036</v>
+        <v>0.00108</v>
       </c>
       <c r="I157" t="n">
-        <v>0.03743</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.61348</v>
+        <v>0.45963</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0227</v>
+        <v>0.01992</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.31712</v>
+        <v>0.00072</v>
       </c>
       <c r="I159" t="n">
-        <v>0.03595</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.55183</v>
+        <v>0.46369</v>
       </c>
       <c r="I160" t="n">
-        <v>0.02754</v>
+        <v>0.01766</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.2382</v>
+        <v>0.00108</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03746</v>
+        <v>0.00293</v>
       </c>
     </row>
   </sheetData>
